--- a/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>74.57</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.43</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519987</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信恒利优势混合</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.06</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>001150</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>融通互联网传媒灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001150</t>
+          <t>001088</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通互联网传媒灵活配置混合</t>
+          <t>华宝国策导向混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.57</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001088</t>
+          <t>002152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝国策导向混合</t>
+          <t>华宝核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002152</t>
+          <t>519987</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝核心优势灵活配置混合</t>
+          <t>长信恒利优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>73.91</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.69</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001088</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝国策导向混合</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>001088</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>华宝国策导向混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -800,15 +910,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>85.58</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.26</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.51</v>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
@@ -1406,7 +1539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1422,14 +1555,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.26</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1571,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.51</v>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1555,14 +1642,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1571,14 +1680,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.26</v>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1587,13 +1718,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.63</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +553,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.26</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.24</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,7 +1772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1558,100 +1973,6 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1726,26 +2047,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1754,6 +2075,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002959-小熊电器.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.63</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +570,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.26</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.24</v>
       </c>
     </row>
@@ -616,7 +633,1107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016285</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙头优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015881</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016286</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙头优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015634</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1640,7 +2757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1772,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1973,100 +3090,6 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2141,26 +3164,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2169,6 +3192,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2374,288 +3491,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>240001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝宝康消费品混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2468</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001118</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝事件驱动混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0201</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001150</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通互联网传媒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6685</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001088</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝国策导向混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2266</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002152</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0622</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>